--- a/examples/vpcwebapp/xlsx/modules.xlsx
+++ b/examples/vpcwebapp/xlsx/modules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/examples/vpcwebapp/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354B8FAB-241C-0F49-B0C6-A27E03532ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F0262-51AE-AE4A-9F33-303CC4651716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3500" windowWidth="18600" windowHeight="11600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="4400" windowWidth="18600" windowHeight="11600" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modules-access" sheetId="69" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="providers" sheetId="70" r:id="rId7"/>
     <sheet name="versions" sheetId="71" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -385,9 +385,6 @@
     <t>*resource</t>
   </si>
   <si>
-    <t>"1.14.0"</t>
-  </si>
-  <si>
     <t>provisioner.tf</t>
   </si>
   <si>
@@ -401,6 +398,9 @@
   </si>
   <si>
     <t>var.profile-webappserver</t>
+  </si>
+  <si>
+    <t>"1.17.0"</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1847,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1860,7 +1860,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1873,7 +1873,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2490,7 +2490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA83B65-1E89-614B-89EB-6F108A46D946}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3047,7 +3047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B070A3B4-CA5D-EA45-8459-BC774810FE7F}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3097,7 +3097,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
@@ -3118,7 +3118,7 @@
         <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>83</v>
@@ -3141,7 +3141,7 @@
         <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>74</v>
@@ -3164,7 +3164,7 @@
         <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>73</v>
@@ -3187,7 +3187,7 @@
         <v>76</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>72</v>
@@ -3210,7 +3210,7 @@
         <v>76</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>68</v>

--- a/examples/vpcwebapp/xlsx/modules.xlsx
+++ b/examples/vpcwebapp/xlsx/modules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/examples/vpcwebapp/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F0262-51AE-AE4A-9F33-303CC4651716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0489FF72-A40E-224F-A7B5-0B5EC34756DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="4400" windowWidth="18600" windowHeight="11600" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="3680" windowWidth="18600" windowHeight="11600" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modules-access" sheetId="69" r:id="rId1"/>
@@ -400,7 +400,7 @@
     <t>var.profile-webappserver</t>
   </si>
   <si>
-    <t>"1.17.0"</t>
+    <t>"1.19.0"</t>
   </si>
 </sst>
 </file>
